--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220405.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220405.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>melon</t>
+    <t>Melon</t>
   </si>
   <si>
     <t>봄여름가을겨울 (Still Life)</t>

--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220405.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220405.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="259">
   <si>
     <t>사이트</t>
   </si>
@@ -770,6 +770,9 @@
   </si>
   <si>
     <t>마크툽컴퍼니</t>
+  </si>
+  <si>
+    <t>D-Nation</t>
   </si>
   <si>
     <t>기타</t>
@@ -1230,7 +1233,7 @@
         <v>221</v>
       </c>
       <c r="H3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1282,7 +1285,7 @@
         <v>223</v>
       </c>
       <c r="H5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1308,7 +1311,7 @@
         <v>224</v>
       </c>
       <c r="H6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1334,7 +1337,7 @@
         <v>225</v>
       </c>
       <c r="H7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1360,7 +1363,7 @@
         <v>224</v>
       </c>
       <c r="H8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1412,7 +1415,7 @@
         <v>226</v>
       </c>
       <c r="H10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1464,7 +1467,7 @@
         <v>227</v>
       </c>
       <c r="H12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1490,7 +1493,7 @@
         <v>225</v>
       </c>
       <c r="H13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1516,7 +1519,7 @@
         <v>228</v>
       </c>
       <c r="H14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1542,7 +1545,7 @@
         <v>229</v>
       </c>
       <c r="H15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1568,7 +1571,7 @@
         <v>230</v>
       </c>
       <c r="H16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1620,7 +1623,7 @@
         <v>232</v>
       </c>
       <c r="H18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1646,7 +1649,7 @@
         <v>233</v>
       </c>
       <c r="H19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1672,7 +1675,7 @@
         <v>225</v>
       </c>
       <c r="H20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1698,7 +1701,7 @@
         <v>234</v>
       </c>
       <c r="H21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1724,7 +1727,7 @@
         <v>235</v>
       </c>
       <c r="H22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1750,7 +1753,7 @@
         <v>236</v>
       </c>
       <c r="H23" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1776,7 +1779,7 @@
         <v>237</v>
       </c>
       <c r="H24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1802,7 +1805,7 @@
         <v>238</v>
       </c>
       <c r="H25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1828,7 +1831,7 @@
         <v>225</v>
       </c>
       <c r="H26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1854,7 +1857,7 @@
         <v>225</v>
       </c>
       <c r="H27" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1906,7 +1909,7 @@
         <v>239</v>
       </c>
       <c r="H29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1932,7 +1935,7 @@
         <v>225</v>
       </c>
       <c r="H30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1958,7 +1961,7 @@
         <v>221</v>
       </c>
       <c r="H31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1984,7 +1987,7 @@
         <v>225</v>
       </c>
       <c r="H32" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2010,7 +2013,7 @@
         <v>225</v>
       </c>
       <c r="H33" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2062,7 +2065,7 @@
         <v>238</v>
       </c>
       <c r="H35" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2088,7 +2091,7 @@
         <v>240</v>
       </c>
       <c r="H36" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2114,7 +2117,7 @@
         <v>237</v>
       </c>
       <c r="H37" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2166,7 +2169,7 @@
         <v>232</v>
       </c>
       <c r="H39" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2192,7 +2195,7 @@
         <v>225</v>
       </c>
       <c r="H40" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2270,7 +2273,7 @@
         <v>233</v>
       </c>
       <c r="H43" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2296,7 +2299,7 @@
         <v>242</v>
       </c>
       <c r="H44" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2426,7 +2429,7 @@
         <v>238</v>
       </c>
       <c r="H49" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2478,7 +2481,7 @@
         <v>244</v>
       </c>
       <c r="H51" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2530,7 +2533,7 @@
         <v>245</v>
       </c>
       <c r="H53" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2556,7 +2559,7 @@
         <v>225</v>
       </c>
       <c r="H54" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2582,7 +2585,7 @@
         <v>246</v>
       </c>
       <c r="H55" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2634,7 +2637,7 @@
         <v>247</v>
       </c>
       <c r="H57" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2660,7 +2663,7 @@
         <v>226</v>
       </c>
       <c r="H58" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2836,7 +2839,7 @@
         <v>248</v>
       </c>
       <c r="H65" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2862,7 +2865,7 @@
         <v>249</v>
       </c>
       <c r="H66" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2888,7 +2891,7 @@
         <v>232</v>
       </c>
       <c r="H67" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2914,7 +2917,7 @@
         <v>250</v>
       </c>
       <c r="H68" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3018,7 +3021,7 @@
         <v>238</v>
       </c>
       <c r="H72" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3044,7 +3047,7 @@
         <v>232</v>
       </c>
       <c r="H73" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3070,7 +3073,7 @@
         <v>251</v>
       </c>
       <c r="H74" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3096,7 +3099,7 @@
         <v>238</v>
       </c>
       <c r="H75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3170,6 +3173,12 @@
       <c r="F78" t="s">
         <v>203</v>
       </c>
+      <c r="G78" t="s">
+        <v>252</v>
+      </c>
+      <c r="H78" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
@@ -3194,7 +3203,7 @@
         <v>238</v>
       </c>
       <c r="H79" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3220,7 +3229,7 @@
         <v>237</v>
       </c>
       <c r="H80" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3246,7 +3255,7 @@
         <v>238</v>
       </c>
       <c r="H81" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3272,7 +3281,7 @@
         <v>237</v>
       </c>
       <c r="H82" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3295,10 +3304,10 @@
         <v>205</v>
       </c>
       <c r="G83" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H83" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3321,10 +3330,10 @@
         <v>206</v>
       </c>
       <c r="G84" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H84" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3347,10 +3356,10 @@
         <v>207</v>
       </c>
       <c r="G85" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H85" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3373,10 +3382,10 @@
         <v>93</v>
       </c>
       <c r="G86" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H86" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3428,7 +3437,7 @@
         <v>236</v>
       </c>
       <c r="H88" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3451,10 +3460,10 @@
         <v>96</v>
       </c>
       <c r="G89" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H89" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3480,7 +3489,7 @@
         <v>232</v>
       </c>
       <c r="H90" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3529,10 +3538,10 @@
         <v>211</v>
       </c>
       <c r="G92" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H92" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3555,10 +3564,10 @@
         <v>212</v>
       </c>
       <c r="G93" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H93" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3584,7 +3593,7 @@
         <v>242</v>
       </c>
       <c r="H94" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3610,7 +3619,7 @@
         <v>224</v>
       </c>
       <c r="H95" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3636,7 +3645,7 @@
         <v>237</v>
       </c>
       <c r="H96" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3714,7 +3723,7 @@
         <v>244</v>
       </c>
       <c r="H99" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3740,7 +3749,7 @@
         <v>237</v>
       </c>
       <c r="H100" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101" spans="1:8">

--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220405.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220405.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="258">
   <si>
     <t>사이트</t>
   </si>
@@ -712,7 +712,7 @@
     <t>스타쉽</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>빅플래닛메이드</t>
@@ -773,9 +773,6 @@
   </si>
   <si>
     <t>D-Nation</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>매직스트로베리 사운드</t>
@@ -1233,7 +1230,7 @@
         <v>221</v>
       </c>
       <c r="H3" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1285,7 +1282,7 @@
         <v>223</v>
       </c>
       <c r="H5" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1311,7 +1308,7 @@
         <v>224</v>
       </c>
       <c r="H6" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1337,7 +1334,7 @@
         <v>225</v>
       </c>
       <c r="H7" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1363,7 +1360,7 @@
         <v>224</v>
       </c>
       <c r="H8" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1415,7 +1412,7 @@
         <v>226</v>
       </c>
       <c r="H10" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1467,7 +1464,7 @@
         <v>227</v>
       </c>
       <c r="H12" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1493,7 +1490,7 @@
         <v>225</v>
       </c>
       <c r="H13" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1519,7 +1516,7 @@
         <v>228</v>
       </c>
       <c r="H14" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1545,7 +1542,7 @@
         <v>229</v>
       </c>
       <c r="H15" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1571,7 +1568,7 @@
         <v>230</v>
       </c>
       <c r="H16" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1623,7 +1620,7 @@
         <v>232</v>
       </c>
       <c r="H18" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1649,7 +1646,7 @@
         <v>233</v>
       </c>
       <c r="H19" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1675,7 +1672,7 @@
         <v>225</v>
       </c>
       <c r="H20" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1701,7 +1698,7 @@
         <v>234</v>
       </c>
       <c r="H21" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1727,7 +1724,7 @@
         <v>235</v>
       </c>
       <c r="H22" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1753,7 +1750,7 @@
         <v>236</v>
       </c>
       <c r="H23" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1779,7 +1776,7 @@
         <v>237</v>
       </c>
       <c r="H24" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1805,7 +1802,7 @@
         <v>238</v>
       </c>
       <c r="H25" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1831,7 +1828,7 @@
         <v>225</v>
       </c>
       <c r="H26" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1857,7 +1854,7 @@
         <v>225</v>
       </c>
       <c r="H27" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1909,7 +1906,7 @@
         <v>239</v>
       </c>
       <c r="H29" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1935,7 +1932,7 @@
         <v>225</v>
       </c>
       <c r="H30" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1961,7 +1958,7 @@
         <v>221</v>
       </c>
       <c r="H31" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1987,7 +1984,7 @@
         <v>225</v>
       </c>
       <c r="H32" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2013,7 +2010,7 @@
         <v>225</v>
       </c>
       <c r="H33" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2065,7 +2062,7 @@
         <v>238</v>
       </c>
       <c r="H35" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2091,7 +2088,7 @@
         <v>240</v>
       </c>
       <c r="H36" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2117,7 +2114,7 @@
         <v>237</v>
       </c>
       <c r="H37" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2169,7 +2166,7 @@
         <v>232</v>
       </c>
       <c r="H39" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2195,7 +2192,7 @@
         <v>225</v>
       </c>
       <c r="H40" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2273,7 +2270,7 @@
         <v>233</v>
       </c>
       <c r="H43" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2299,7 +2296,7 @@
         <v>242</v>
       </c>
       <c r="H44" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2429,7 +2426,7 @@
         <v>238</v>
       </c>
       <c r="H49" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2481,7 +2478,7 @@
         <v>244</v>
       </c>
       <c r="H51" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2533,7 +2530,7 @@
         <v>245</v>
       </c>
       <c r="H53" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2559,7 +2556,7 @@
         <v>225</v>
       </c>
       <c r="H54" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2585,7 +2582,7 @@
         <v>246</v>
       </c>
       <c r="H55" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2637,7 +2634,7 @@
         <v>247</v>
       </c>
       <c r="H57" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2663,7 +2660,7 @@
         <v>226</v>
       </c>
       <c r="H58" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2839,7 +2836,7 @@
         <v>248</v>
       </c>
       <c r="H65" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2865,7 +2862,7 @@
         <v>249</v>
       </c>
       <c r="H66" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2891,7 +2888,7 @@
         <v>232</v>
       </c>
       <c r="H67" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2917,7 +2914,7 @@
         <v>250</v>
       </c>
       <c r="H68" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3021,7 +3018,7 @@
         <v>238</v>
       </c>
       <c r="H72" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3047,7 +3044,7 @@
         <v>232</v>
       </c>
       <c r="H73" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3073,7 +3070,7 @@
         <v>251</v>
       </c>
       <c r="H74" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3099,7 +3096,7 @@
         <v>238</v>
       </c>
       <c r="H75" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3177,7 +3174,7 @@
         <v>252</v>
       </c>
       <c r="H78" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3203,7 +3200,7 @@
         <v>238</v>
       </c>
       <c r="H79" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3229,7 +3226,7 @@
         <v>237</v>
       </c>
       <c r="H80" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3255,7 +3252,7 @@
         <v>238</v>
       </c>
       <c r="H81" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3281,7 +3278,7 @@
         <v>237</v>
       </c>
       <c r="H82" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3304,10 +3301,10 @@
         <v>205</v>
       </c>
       <c r="G83" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="H83" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3330,10 +3327,10 @@
         <v>206</v>
       </c>
       <c r="G84" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H84" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3356,10 +3353,10 @@
         <v>207</v>
       </c>
       <c r="G85" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="H85" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3382,10 +3379,10 @@
         <v>93</v>
       </c>
       <c r="G86" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H86" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3437,7 +3434,7 @@
         <v>236</v>
       </c>
       <c r="H88" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3460,10 +3457,10 @@
         <v>96</v>
       </c>
       <c r="G89" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H89" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3489,7 +3486,7 @@
         <v>232</v>
       </c>
       <c r="H90" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3538,10 +3535,10 @@
         <v>211</v>
       </c>
       <c r="G92" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H92" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3564,10 +3561,10 @@
         <v>212</v>
       </c>
       <c r="G93" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H93" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3593,7 +3590,7 @@
         <v>242</v>
       </c>
       <c r="H94" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3619,7 +3616,7 @@
         <v>224</v>
       </c>
       <c r="H95" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3645,7 +3642,7 @@
         <v>237</v>
       </c>
       <c r="H96" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3723,7 +3720,7 @@
         <v>244</v>
       </c>
       <c r="H99" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3749,7 +3746,7 @@
         <v>237</v>
       </c>
       <c r="H100" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="1:8">
